--- a/reportes_f1.xlsx
+++ b/reportes_f1.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,21 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Francia</t>
         </is>
       </c>
     </row>
@@ -499,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,89 +580,30 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ubicación</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Interlagos</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45911</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hermanos Rodríguez</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45956</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -664,6 +620,119 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ubicación</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Interlagos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45911</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hermanos Rodríguez</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45956</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>46015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>GP</t>
         </is>
       </c>
@@ -761,6 +830,86 @@
       </c>
       <c r="D5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interlagos</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hermanos Rodríguez</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ferrari</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,19 +964,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Kevin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Red Bull</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -848,7 +997,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Red Bull</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
